--- a/puncte_eronate.xlsx
+++ b/puncte_eronate.xlsx
@@ -1079,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="AA7" s="2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -2992,86 +2992,86 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B31" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C31" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H31" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="K31" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="L31" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="M31" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N31" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="O31" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="P31" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q31" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="R31" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="S31" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="T31" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="U31" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="V31" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="W31" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="X31" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA31" s="3" t="n">
-        <v>4</v>
+      <c r="A31" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K31" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="L31" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="M31" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="O31" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="P31" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="U31" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="W31" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="X31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA31" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -4897,7 +4897,7 @@
         <v>1</v>
       </c>
       <c r="AA53" s="2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
@@ -5644,7 +5644,7 @@
         <v>2</v>
       </c>
       <c r="AA62" s="2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63">
@@ -7889,86 +7889,86 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B90" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C90" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D90" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E90" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F90" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G90" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H90" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="J90" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="K90" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L90" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="M90" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N90" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="O90" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="P90" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q90" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="R90" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="S90" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="T90" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="U90" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="V90" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="W90" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X90" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y90" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z90" s="2" t="n">
+      <c r="A90" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B90" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C90" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E90" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G90" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H90" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I90" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="J90" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K90" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L90" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="M90" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N90" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="O90" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="P90" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q90" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="R90" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="U90" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V90" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="W90" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X90" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y90" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z90" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="AA90" s="2" t="n">
-        <v>4</v>
+      <c r="AA90" s="3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="91">
@@ -8221,86 +8221,86 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B94" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C94" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D94" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E94" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F94" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G94" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H94" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="K94" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L94" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M94" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N94" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="O94" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="P94" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q94" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="R94" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="S94" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="T94" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="U94" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="V94" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="W94" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X94" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y94" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z94" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA94" s="2" t="n">
-        <v>4</v>
+      <c r="A94" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B94" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C94" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D94" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E94" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H94" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I94" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K94" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M94" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q94" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R94" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="S94" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T94" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="U94" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V94" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="W94" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X94" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -11786,7 +11786,7 @@
         <v>2</v>
       </c>
       <c r="AA136" s="2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="137">
@@ -11952,7 +11952,7 @@
         <v>11</v>
       </c>
       <c r="AA138" s="2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139">
@@ -12201,7 +12201,7 @@
         <v>2</v>
       </c>
       <c r="AA141" s="2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="142">
@@ -13197,7 +13197,7 @@
         <v>6</v>
       </c>
       <c r="AA153" s="2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="154">
@@ -13778,7 +13778,7 @@
         <v>5</v>
       </c>
       <c r="AA160" s="2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="161">
@@ -17019,86 +17019,86 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B200" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C200" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D200" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E200" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F200" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G200" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H200" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I200" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="J200" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K200" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="L200" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="M200" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="N200" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="O200" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="P200" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q200" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R200" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="S200" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="T200" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="U200" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="V200" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="W200" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="X200" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y200" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z200" s="2" t="n">
+      <c r="A200" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B200" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C200" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D200" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E200" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F200" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G200" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H200" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I200" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="J200" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K200" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="L200" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="M200" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N200" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="O200" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="P200" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q200" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R200" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="S200" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="T200" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U200" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V200" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="W200" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="X200" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y200" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z200" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="AA200" s="2" t="n">
-        <v>4</v>
+      <c r="AA200" s="3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="201">
@@ -17185,86 +17185,86 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B202" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C202" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D202" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E202" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F202" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G202" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H202" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I202" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="J202" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K202" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="L202" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M202" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N202" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="O202" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="P202" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q202" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R202" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S202" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T202" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="U202" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="V202" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="W202" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="X202" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y202" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z202" s="2" t="n">
+      <c r="A202" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B202" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C202" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D202" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E202" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F202" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G202" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H202" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I202" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J202" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K202" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L202" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M202" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N202" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="O202" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="P202" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q202" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R202" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S202" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T202" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U202" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V202" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="W202" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="X202" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y202" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z202" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="AA202" s="2" t="n">
-        <v>4</v>
+      <c r="AA202" s="3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="203">
@@ -18015,86 +18015,86 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B212" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C212" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D212" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E212" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F212" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G212" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="H212" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J212" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="K212" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="L212" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="M212" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N212" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="O212" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="P212" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q212" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R212" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S212" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T212" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U212" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="V212" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="W212" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="X212" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y212" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z212" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA212" s="3" t="n">
-        <v>4</v>
+      <c r="A212" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B212" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C212" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D212" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E212" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F212" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G212" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H212" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I212" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J212" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K212" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="L212" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="M212" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N212" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O212" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="P212" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q212" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R212" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S212" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T212" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U212" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V212" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W212" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="X212" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y212" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z212" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA212" s="2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="213">
@@ -19588,7 +19588,7 @@
         <v>1</v>
       </c>
       <c r="AA230" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
@@ -19754,7 +19754,7 @@
         <v>6</v>
       </c>
       <c r="AA232" s="2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="233">
@@ -21580,7 +21580,7 @@
         <v>7</v>
       </c>
       <c r="AA254" s="2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="255">
@@ -21663,7 +21663,7 @@
         <v>11</v>
       </c>
       <c r="AA255" s="2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="256">
@@ -21833,86 +21833,86 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B258" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C258" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D258" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E258" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F258" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G258" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H258" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I258" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J258" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="K258" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="L258" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M258" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N258" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="O258" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="P258" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q258" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="R258" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="S258" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T258" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U258" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="V258" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="W258" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="X258" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y258" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z258" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA258" s="3" t="n">
-        <v>4</v>
+      <c r="A258" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B258" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C258" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D258" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E258" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F258" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G258" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H258" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I258" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J258" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K258" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="L258" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="M258" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N258" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O258" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="P258" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q258" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="R258" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="S258" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T258" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U258" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V258" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="W258" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X258" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y258" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z258" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA258" s="2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="259">
@@ -22746,86 +22746,86 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B269" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C269" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D269" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E269" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F269" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G269" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H269" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="J269" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K269" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="L269" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M269" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="N269" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O269" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="P269" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q269" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R269" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S269" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T269" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="U269" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="V269" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W269" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="X269" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y269" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z269" s="2" t="n">
+      <c r="A269" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B269" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C269" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D269" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E269" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F269" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G269" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H269" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I269" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="J269" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K269" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="L269" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M269" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N269" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="O269" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="P269" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q269" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R269" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S269" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T269" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U269" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V269" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W269" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="X269" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y269" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z269" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="AA269" s="2" t="n">
-        <v>4</v>
+      <c r="AA269" s="3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="270">
@@ -22991,7 +22991,7 @@
         <v>0</v>
       </c>
       <c r="AA271" s="2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="272">
@@ -23161,86 +23161,86 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B274" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C274" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D274" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E274" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F274" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G274" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H274" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J274" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="K274" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L274" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="M274" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N274" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="O274" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="P274" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q274" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="R274" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="S274" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="T274" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="U274" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="V274" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="W274" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="X274" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y274" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z274" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA274" s="2" t="n">
-        <v>4</v>
+      <c r="A274" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B274" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C274" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D274" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E274" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F274" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G274" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H274" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I274" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J274" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K274" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L274" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="M274" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N274" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="O274" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="P274" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q274" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R274" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S274" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T274" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="U274" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V274" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="W274" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="X274" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y274" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z274" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA274" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="275">
@@ -23576,86 +23576,86 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B279" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C279" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D279" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E279" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F279" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G279" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H279" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="J279" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K279" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L279" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M279" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N279" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="O279" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="P279" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q279" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R279" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S279" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="T279" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="U279" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="V279" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W279" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="X279" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y279" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z279" s="2" t="n">
+      <c r="A279" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B279" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C279" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D279" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E279" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F279" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G279" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H279" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I279" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J279" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K279" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L279" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="M279" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N279" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="O279" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="P279" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q279" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R279" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S279" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T279" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U279" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V279" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W279" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="X279" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y279" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z279" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="AA279" s="2" t="n">
-        <v>4</v>
+      <c r="AA279" s="3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="280">
@@ -24817,7 +24817,7 @@
         <v>12</v>
       </c>
       <c r="AA293" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
@@ -25813,7 +25813,7 @@
         <v>5</v>
       </c>
       <c r="AA305" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306">
@@ -25896,7 +25896,7 @@
         <v>5</v>
       </c>
       <c r="AA306" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307">
